--- a/Database/CRTTimeTable.xlsx
+++ b/Database/CRTTimeTable.xlsx
@@ -4,24 +4,53 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="徐铎" sheetId="3" r:id="rId1"/>
-    <sheet name="钱凌峰" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="苏雄飞" sheetId="31" r:id="rId1"/>
+    <sheet name="李禄平" sheetId="30" r:id="rId2"/>
+    <sheet name="黎斌" sheetId="29" r:id="rId3"/>
+    <sheet name="石茜" sheetId="28" r:id="rId4"/>
+    <sheet name="高志浩" sheetId="27" r:id="rId5"/>
+    <sheet name="刘镔豪" sheetId="26" r:id="rId6"/>
+    <sheet name="董欣" sheetId="25" r:id="rId7"/>
+    <sheet name="侯博" sheetId="24" r:id="rId8"/>
+    <sheet name="李勇飞" sheetId="23" r:id="rId9"/>
+    <sheet name="王任滋" sheetId="22" r:id="rId10"/>
+    <sheet name="陈鹏飞" sheetId="21" r:id="rId11"/>
+    <sheet name="范银" sheetId="20" r:id="rId12"/>
+    <sheet name="江丽" sheetId="19" r:id="rId13"/>
+    <sheet name="冯云" sheetId="18" r:id="rId14"/>
+    <sheet name="蒋再龙" sheetId="17" r:id="rId15"/>
+    <sheet name="朱景泉" sheetId="16" r:id="rId16"/>
+    <sheet name="赵尧旭" sheetId="15" r:id="rId17"/>
+    <sheet name="彭毓兴" sheetId="14" r:id="rId18"/>
+    <sheet name="邓肖珂" sheetId="13" r:id="rId19"/>
+    <sheet name="许铭潮" sheetId="12" r:id="rId20"/>
+    <sheet name="王盛宇" sheetId="11" r:id="rId21"/>
+    <sheet name="张冰" sheetId="10" r:id="rId22"/>
+    <sheet name="彭季超" sheetId="9" r:id="rId23"/>
+    <sheet name="牛振国" sheetId="8" r:id="rId24"/>
+    <sheet name="王翼丰" sheetId="7" r:id="rId25"/>
+    <sheet name="徐宽" sheetId="6" r:id="rId26"/>
+    <sheet name="李四林" sheetId="5" r:id="rId27"/>
+    <sheet name="高金龙" sheetId="4" r:id="rId28"/>
+    <sheet name="徐铎" sheetId="3" r:id="rId29"/>
+    <sheet name="钱凌峰" sheetId="2" r:id="rId30"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId31"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="2">
   <si>
     <t>/0:0</t>
   </si>
   <si>
     <t>机械设计/3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -378,15 +407,280 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -546,4 +840,250 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/CRTTimeTable.xlsx
+++ b/Database/CRTTimeTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="苏雄飞" sheetId="31" r:id="rId1"/>

--- a/Database/CRTTimeTable.xlsx
+++ b/Database/CRTTimeTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="苏雄飞" sheetId="31" r:id="rId1"/>
@@ -44,13 +44,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="6">
   <si>
     <t>/0:0</t>
   </si>
   <si>
     <t>机械设计/3:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械原理/2:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械设计/3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工程/3:10</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -634,12 +649,151 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -846,148 +1000,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Database/CRTTimeTable.xlsx
+++ b/Database/CRTTimeTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="苏雄飞" sheetId="31" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="7">
   <si>
     <t>/0:0</t>
   </si>
@@ -61,11 +61,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>机械工程/3:10</t>
+  </si>
+  <si>
     <t>机械设计/3:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机械工程/3:10</t>
+    <t>机械设计/3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -830,10 +834,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,6 +980,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1144,7 +1153,12 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Database/CRTTimeTable.xlsx
+++ b/Database/CRTTimeTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="24" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="苏雄飞" sheetId="31" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="13">
   <si>
     <t>/0:0</t>
   </si>
@@ -65,6 +65,30 @@
   </si>
   <si>
     <t>机械设计/3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械设计/3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大物/3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械原理/3:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -640,12 +664,156 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -836,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/Database/CRTTimeTable.xlsx
+++ b/Database/CRTTimeTable.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="12">
   <si>
     <t>/0:0</t>
   </si>
@@ -72,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数学/3:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +85,10 @@
   </si>
   <si>
     <t>机械设计/3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/0:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,142 +671,142 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
